--- a/kyivbot/resources/food_stores/schedriy_koshyk.xlsx
+++ b/kyivbot/resources/food_stores/schedriy_koshyk.xlsx
@@ -1,59 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\task3\data\food_stores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\food_stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CBDE5F-9323-48D0-8534-79890158E241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7243473C-8199-4E14-8C6D-B17F6B6CF15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Дніпровська набережна, 26А</t>
   </si>
   <si>
+    <t>Щедрий кошик - Дніпровська набережна, 26А</t>
+  </si>
+  <si>
     <t>Открыто ⋅ Закроется в 21:00</t>
   </si>
   <si>
+    <t>Щедрий кошик - Вулиця, бульвар Ярослава Гашека, 8</t>
+  </si>
+  <si>
     <t>Посещение магазина</t>
   </si>
   <si>
+    <t>Щедрий кошик - вулиця Ревуцького, 9</t>
+  </si>
+  <si>
     <t>Продуктовий магазин "Щедрий Кошик"</t>
   </si>
   <si>
+    <t>Щедрий кошик - Condominium Complex Seven, Дніпровська набережна, 16д</t>
+  </si>
+  <si>
     <t>3,8(176) · Продовольственный магазин</t>
   </si>
   <si>
+    <t>Щедрий кошик - вулиця Вереснева, 26/28</t>
+  </si>
+  <si>
     <t>Вулиця, бульвар Ярослава Гашека, 8</t>
   </si>
   <si>
+    <t>Щедрий кошик - вулиця Вишняківська, 2 · 067 500 1651</t>
+  </si>
+  <si>
+    <t>Щедрий кошик - вулиця Кирилівська, 126/2</t>
+  </si>
+  <si>
+    <t>Щедрий кошик - вулиця Євгена Сверстюка, 6Г · 067 500 1651</t>
+  </si>
+  <si>
+    <t>Щедрий кошик - вулиця Михайла Драгоманова, 17</t>
+  </si>
+  <si>
     <t>4,4(44) · Продовольственный магазин</t>
   </si>
   <si>
+    <t>Щедрий кошик - провулок Олександра Попова, 12</t>
+  </si>
+  <si>
     <t>вулиця Ревуцького, 9</t>
   </si>
   <si>
+    <t>Щедрий кошик - вулиця Милославська, 49</t>
+  </si>
+  <si>
     <t>Открыто ⋅ Закроется в 22:00</t>
   </si>
   <si>
+    <t>Щедрий кошик - вулиця Депутатська, 4/6</t>
+  </si>
+  <si>
+    <t>Щедрий кошик - провулок Лобачевського, 7</t>
+  </si>
+  <si>
     <t>4,3(6) · Продовольственный магазин</t>
   </si>
   <si>
@@ -130,6 +164,9 @@
   </si>
   <si>
     <t>провулок Лобачевського, 7</t>
+  </si>
+  <si>
+    <t>Щедрий кошик</t>
   </si>
 </sst>
 </file>
@@ -465,320 +502,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.5703125" customWidth="1"/>
+    <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>34</v>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
